--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\import_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{119F4299-1B41-4A78-8AC6-0C378FC317E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BB5852-A5A6-4B5F-B654-F9819926C85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31650" yWindow="3210" windowWidth="22890" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="富集明细表" sheetId="1" r:id="rId1"/>
@@ -127,24 +127,6 @@
     <t>0.086</t>
   </si>
   <si>
-    <t>GS2308110001D001</t>
-  </si>
-  <si>
-    <t>20230811ZDH04</t>
-  </si>
-  <si>
-    <t>GS2308090007D002</t>
-  </si>
-  <si>
-    <t>20230809ZDH05</t>
-  </si>
-  <si>
-    <t>GS2308090007D001</t>
-  </si>
-  <si>
-    <t>20230809ZDH06</t>
-  </si>
-  <si>
     <t>GS2308090006D004</t>
   </si>
   <si>
@@ -527,29 +509,47 @@
   </si>
   <si>
     <t>ZDHCE100</t>
-  </si>
-  <si>
-    <t>GS2207150003D005</t>
-  </si>
-  <si>
-    <t>GS2207150003D004</t>
-  </si>
-  <si>
-    <t>GS2207150003D001</t>
-  </si>
-  <si>
-    <t>20230824ZDH01</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>20230824ZDH02</t>
-  </si>
-  <si>
-    <t>20230824ZDH03</t>
   </si>
   <si>
     <t>A1</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS2308280003D002</t>
+  </si>
+  <si>
+    <t>GS2308280003D001</t>
+  </si>
+  <si>
+    <t>GS2308280002D002</t>
+  </si>
+  <si>
+    <t>GS2308280002D001</t>
+  </si>
+  <si>
+    <t>GS2308280001D002</t>
+  </si>
+  <si>
+    <t>GS2308280001D001</t>
+  </si>
+  <si>
+    <t>20230828SRZDH01</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230828SRZDH02</t>
+  </si>
+  <si>
+    <t>20230828SRZDH03</t>
+  </si>
+  <si>
+    <t>20230828SRZDH04</t>
+  </si>
+  <si>
+    <t>20230828SRZDH05</t>
+  </si>
+  <si>
+    <t>20230828SRZDH06</t>
   </si>
 </sst>
 </file>
@@ -993,7 +993,7 @@
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A7" sqref="A2:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="2" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>19</v>
@@ -1132,13 +1132,13 @@
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -1191,13 +1191,13 @@
     </row>
     <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -1250,13 +1250,13 @@
     </row>
     <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>19</v>
@@ -1309,13 +1309,13 @@
     </row>
     <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>37</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
@@ -1427,13 +1427,13 @@
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>19</v>
@@ -1486,13 +1486,13 @@
     </row>
     <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -1604,13 +1604,13 @@
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -1663,13 +1663,13 @@
     </row>
     <row r="12" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>19</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="13" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>19</v>
@@ -1781,13 +1781,13 @@
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>19</v>
@@ -1899,13 +1899,13 @@
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>19</v>
@@ -1958,13 +1958,13 @@
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>19</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -2076,13 +2076,13 @@
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>19</v>
@@ -2194,13 +2194,13 @@
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>19</v>
@@ -2253,13 +2253,13 @@
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>19</v>
@@ -2312,13 +2312,13 @@
     </row>
     <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
@@ -2371,13 +2371,13 @@
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>19</v>
@@ -2430,13 +2430,13 @@
     </row>
     <row r="25" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>19</v>
@@ -2489,13 +2489,13 @@
     </row>
     <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
@@ -2548,13 +2548,13 @@
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>19</v>
@@ -2607,13 +2607,13 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
@@ -2666,13 +2666,13 @@
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
@@ -2784,13 +2784,13 @@
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>19</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>19</v>
@@ -2902,13 +2902,13 @@
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>19</v>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>19</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>19</v>
@@ -3138,13 +3138,13 @@
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>19</v>
@@ -3197,13 +3197,13 @@
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>19</v>
@@ -3256,13 +3256,13 @@
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>19</v>
@@ -3315,13 +3315,13 @@
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
@@ -3374,13 +3374,13 @@
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>19</v>
@@ -3433,10 +3433,10 @@
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>19</v>
@@ -3489,10 +3489,10 @@
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>19</v>
@@ -3545,10 +3545,10 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>19</v>
@@ -3601,10 +3601,10 @@
     </row>
     <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>19</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>19</v>
@@ -3713,10 +3713,10 @@
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>19</v>
@@ -3769,10 +3769,10 @@
     </row>
     <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>19</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="49" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>19</v>
@@ -3881,10 +3881,10 @@
     </row>
     <row r="50" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>19</v>
@@ -3937,10 +3937,10 @@
     </row>
     <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>19</v>
@@ -3993,10 +3993,10 @@
     </row>
     <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>19</v>
@@ -4049,10 +4049,10 @@
     </row>
     <row r="53" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>19</v>
@@ -4105,10 +4105,10 @@
     </row>
     <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>19</v>
@@ -4161,10 +4161,10 @@
     </row>
     <row r="55" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>19</v>
@@ -4217,10 +4217,10 @@
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>19</v>
@@ -4273,10 +4273,10 @@
     </row>
     <row r="57" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>19</v>
@@ -4329,10 +4329,10 @@
     </row>
     <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>19</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="59" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>19</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="60" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>19</v>
@@ -4497,10 +4497,10 @@
     </row>
     <row r="61" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>19</v>
@@ -4553,10 +4553,10 @@
     </row>
     <row r="62" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>19</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="63" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>19</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="64" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>19</v>
@@ -4721,10 +4721,10 @@
     </row>
     <row r="65" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>19</v>
@@ -4777,10 +4777,10 @@
     </row>
     <row r="66" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>19</v>
@@ -4833,10 +4833,10 @@
     </row>
     <row r="67" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>19</v>
@@ -4889,10 +4889,10 @@
     </row>
     <row r="68" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>19</v>
@@ -4945,10 +4945,10 @@
     </row>
     <row r="69" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>19</v>
@@ -5001,10 +5001,10 @@
     </row>
     <row r="70" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>19</v>
@@ -5057,10 +5057,10 @@
     </row>
     <row r="71" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>19</v>
@@ -5113,10 +5113,10 @@
     </row>
     <row r="72" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>19</v>
@@ -5169,10 +5169,10 @@
     </row>
     <row r="73" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>19</v>
@@ -5225,10 +5225,10 @@
     </row>
     <row r="74" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>19</v>
@@ -5281,10 +5281,10 @@
     </row>
     <row r="75" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>19</v>
@@ -5337,10 +5337,10 @@
     </row>
     <row r="76" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>19</v>
@@ -5393,10 +5393,10 @@
     </row>
     <row r="77" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>19</v>
@@ -5449,10 +5449,10 @@
     </row>
     <row r="78" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>19</v>
@@ -5505,10 +5505,10 @@
     </row>
     <row r="79" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>19</v>
@@ -5561,10 +5561,10 @@
     </row>
     <row r="80" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>19</v>
@@ -5617,10 +5617,10 @@
     </row>
     <row r="81" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>19</v>
@@ -5673,10 +5673,10 @@
     </row>
     <row r="82" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>19</v>
@@ -5729,10 +5729,10 @@
     </row>
     <row r="83" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>19</v>
@@ -5785,10 +5785,10 @@
     </row>
     <row r="84" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>19</v>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="85" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>19</v>
@@ -5897,10 +5897,10 @@
     </row>
     <row r="86" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>19</v>
@@ -5953,10 +5953,10 @@
     </row>
     <row r="87" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>19</v>
@@ -6009,10 +6009,10 @@
     </row>
     <row r="88" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>19</v>
@@ -6065,10 +6065,10 @@
     </row>
     <row r="89" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>19</v>
@@ -6121,10 +6121,10 @@
     </row>
     <row r="90" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>19</v>
@@ -6177,10 +6177,10 @@
     </row>
     <row r="91" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>19</v>
@@ -6233,10 +6233,10 @@
     </row>
     <row r="92" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>19</v>
@@ -6289,10 +6289,10 @@
     </row>
     <row r="93" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>19</v>
@@ -6345,10 +6345,10 @@
     </row>
     <row r="94" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>19</v>
@@ -6401,10 +6401,10 @@
     </row>
     <row r="95" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>19</v>
@@ -6457,10 +6457,10 @@
     </row>
     <row r="96" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>19</v>
@@ -6513,10 +6513,10 @@
     </row>
     <row r="97" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>19</v>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="98" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>19</v>
@@ -6625,10 +6625,10 @@
     </row>
     <row r="99" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>19</v>
@@ -6681,10 +6681,10 @@
     </row>
     <row r="100" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>19</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="101" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>19</v>

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -637,12 +637,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>GS2309060005D002</t>
+          <t>GS2309070036D001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>20230906ZDH01</t>
+          <t>20230908ZDH01</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>GS2309050073D001</t>
+          <t>GS2309070037D002</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>20230906ZDH02</t>
+          <t>20230908ZDH02</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -831,12 +831,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GS2309050072D007</t>
+          <t>GS2309070037D001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>20230906ZDH03</t>
+          <t>20230908ZDH03</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -928,12 +928,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GS2309050072D001</t>
+          <t>GS2309070036D002</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>20230906ZDH04</t>
+          <t>20230908ZDH04</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -637,7 +637,7 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>GS2309070036D001</t>
+          <t>GS2309080092D001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>GS2309070037D002</t>
+          <t>GS2309080093D002</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GS2309070037D001</t>
+          <t>GS2309080093D001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GS2309070036D002</t>
+          <t>GS2309080092D002</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -637,12 +637,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>GS2309080092D001</t>
+          <t>GS2309110001D001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>20230908ZDH01</t>
+          <t>20230911ZDH01</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>GS2309080093D002</t>
+          <t>GS2309110002D002</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>20230908ZDH02</t>
+          <t>20230911ZDH02</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -831,12 +831,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GS2309080093D001</t>
+          <t>GS2309110002D001</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>20230908ZDH03</t>
+          <t>20230911ZDH03</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -928,12 +928,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GS2309080092D002</t>
+          <t>GS2309110001D002</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>20230908ZDH04</t>
+          <t>20230911ZDH04</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -637,12 +637,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>GS2309110001D001</t>
+          <t>GS2309120058D002</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>20230911ZDH01</t>
+          <t>20230912ZDH01</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>GS2309110002D002</t>
+          <t>GS2309120058D001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>20230911ZDH02</t>
+          <t>20230912ZDH02</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -831,12 +831,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GS2309110002D001</t>
+          <t>GS2309120057D002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>20230911ZDH03</t>
+          <t>20230912ZDH03</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -928,12 +928,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GS2309110001D002</t>
+          <t>GS2309120057D001</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>20230911ZDH04</t>
+          <t>20230912ZDH04</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -637,12 +637,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>GS2309120058D002</t>
+          <t>GS2309150034D002</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>20230912ZDH01</t>
+          <t>20230915ZDH01</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>GS2309120058D001</t>
+          <t>GS2309150034D001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>20230912ZDH02</t>
+          <t>20230915ZDH02</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -831,12 +831,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GS2309120057D002</t>
+          <t>GS2309150035D002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>20230912ZDH03</t>
+          <t>20230915ZDH03</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -928,12 +928,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GS2309120057D001</t>
+          <t>GS2309150035D001</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>20230912ZDH04</t>
+          <t>20230915ZDH04</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -637,12 +637,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>GS2309150034D002</t>
+          <t>GS2309180003D001</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>20230915ZDH01</t>
+          <t>20230918ZDH01</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -734,12 +734,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>GS2309150034D001</t>
+          <t>GS2309180002D001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>20230915ZDH02</t>
+          <t>20230918ZDH02</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -831,12 +831,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GS2309150035D002</t>
+          <t>GS2309180002D002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>20230915ZDH03</t>
+          <t>20230918ZDH03</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
@@ -928,12 +928,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GS2309150035D001</t>
+          <t>GS2309180003D002</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>20230915ZDH04</t>
+          <t>20230918ZDH04</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -637,7 +637,7 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>GS2310270024D002</t>
+          <t>GS2310270045D002</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>GS2310270024D001</t>
+          <t>GS2310270045D001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>GS2310270023D002</t>
+          <t>GS2310270044D002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -928,7 +928,7 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>GS2310270023D001</t>
+          <t>GS2310270044D001</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -1244,12 +1244,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>GS2401150006D002</t>
+          <t>GS2401160007D001</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH01</t>
+          <t>20240116ZDH01</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
@@ -1341,12 +1341,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>GS2401150006D001</t>
+          <t>GS2401160008D002</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH02</t>
+          <t>20240116ZDH02</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>GS2401150005D002</t>
+          <t>GS2401160008D001</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH03</t>
+          <t>20240116ZDH03</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
@@ -1535,12 +1535,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>GS2401150005D001</t>
+          <t>GS2401160007D002</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH04</t>
+          <t>20240116ZDH04</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -1244,12 +1244,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>GS2401160007D001</t>
+          <t>GS2404290626D002</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH01</t>
+          <t>20240429ZDH01</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
@@ -1341,12 +1341,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>GS2401160008D002</t>
+          <t>GS2404290626D001</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH02</t>
+          <t>20240429ZDH02</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>GS2401160008D001</t>
+          <t>GS2404290625D002</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH03</t>
+          <t>20240429ZDH03</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
@@ -1535,12 +1535,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>GS2401160007D002</t>
+          <t>GS2404290625D001</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH04</t>
+          <t>20240429ZDH04</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">

--- a/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
+++ b/data/import_excel/文库富集-明细表批量粘贴导入E.xlsx
@@ -1244,12 +1244,12 @@
     <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>GS2404290626D002</t>
+          <t>GS2405210046D002</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH01</t>
+          <t>20240521ZDH01</t>
         </is>
       </c>
       <c r="C2" s="6" t="inlineStr">
@@ -1341,12 +1341,12 @@
     <row r="3" ht="15" customHeight="1" s="14">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>GS2404290626D001</t>
+          <t>GS2405210046D001</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH02</t>
+          <t>20240521ZDH02</t>
         </is>
       </c>
       <c r="C3" s="6" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="4" ht="15" customHeight="1" s="14">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>GS2404290625D002</t>
+          <t>GS2405210045D002</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH03</t>
+          <t>20240521ZDH03</t>
         </is>
       </c>
       <c r="C4" s="6" t="inlineStr">
@@ -1535,12 +1535,12 @@
     <row r="5" ht="15" customHeight="1" s="14">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>GS2404290625D001</t>
+          <t>GS2405210045D001</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH04</t>
+          <t>20240521ZDH04</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
